--- a/sair2191/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/sair2191/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VVSS\lab1\5-ProiectEvaluatorExamen\5-ProiectEvaluatorExamen\ProiectEvaluatorExamen\Docs\Lab01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vvss\sair2191\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C47AF72-CBD2-4C61-A9C0-C69ED3A9FD74}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="4245" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4248" yWindow="4248" windowWidth="21600" windowHeight="11832" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
     <sheet name="Architect. Design Phase Defects" sheetId="6" r:id="rId2"/>
     <sheet name="Coding Phase Defects" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -197,13 +196,16 @@
     <t>intrebarile trebuie sa fie salvate, din enunt putem presupune ca intr-un fisier</t>
   </si>
   <si>
-    <t>Sirb Sebastian Tudor  grupa 236/2</t>
+    <t>Sfechis Alin Catalin  grupa 236/2</t>
+  </si>
+  <si>
+    <t>Sfechis Alin Catalin grupa 236/2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -449,7 +451,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{8D85AD6A-548A-4946-B832-3A2FD2450794}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -541,23 +543,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -593,23 +578,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -785,7 +753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
@@ -795,22 +763,22 @@
       <selection activeCell="D5" sqref="D5:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
-    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
         <v>16</v>
       </c>
@@ -818,7 +786,7 @@
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
@@ -827,16 +795,16 @@
       </c>
       <c r="E4" s="19"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5" s="22"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
@@ -844,14 +812,14 @@
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -865,7 +833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -879,7 +847,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -894,7 +862,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
@@ -909,7 +877,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -922,7 +890,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -935,7 +903,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -948,7 +916,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -957,7 +925,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -966,7 +934,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -975,7 +943,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -984,7 +952,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="15"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -993,7 +961,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="15"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1002,7 +970,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="15"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1011,7 +979,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="15"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1020,7 +988,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1029,7 +997,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="15"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1038,7 +1006,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="15"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C27" s="11" t="s">
         <v>8</v>
       </c>
@@ -1059,32 +1027,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
-    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
@@ -1092,7 +1060,7 @@
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1101,7 +1069,7 @@
       </c>
       <c r="E4" s="23"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
@@ -1110,7 +1078,7 @@
       </c>
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
@@ -1118,14 +1086,14 @@
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1139,7 +1107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1153,7 +1121,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1168,7 +1136,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
@@ -1181,7 +1149,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1196,7 +1164,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1209,7 +1177,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1222,7 +1190,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1235,7 +1203,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1248,7 +1216,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1257,7 +1225,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1266,7 +1234,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1275,7 +1243,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1284,7 +1252,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1293,7 +1261,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1302,7 +1270,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1311,7 +1279,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1320,7 +1288,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1329,7 +1297,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C28" s="11" t="s">
         <v>8</v>
       </c>
@@ -1350,33 +1318,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
-    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="6"/>
+    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
         <v>14</v>
       </c>
@@ -1384,7 +1352,7 @@
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
@@ -1393,7 +1361,7 @@
       </c>
       <c r="E4" s="26"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
@@ -1402,7 +1370,7 @@
       </c>
       <c r="E5" s="28"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
@@ -1410,14 +1378,14 @@
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1431,7 +1399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1445,7 +1413,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1460,7 +1428,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
@@ -1475,7 +1443,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1488,7 +1456,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1501,7 +1469,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1510,7 +1478,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1519,7 +1487,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1528,7 +1496,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1537,7 +1505,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1546,7 +1514,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1555,7 +1523,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1564,7 +1532,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1573,7 +1541,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1582,7 +1550,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1591,7 +1559,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1600,7 +1568,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1609,7 +1577,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1618,7 +1586,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1627,7 +1595,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1636,7 +1604,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1645,7 +1613,7 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C32" s="11" t="s">
         <v>8</v>
       </c>
